--- a/Pc D Data.xlsx
+++ b/Pc D Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jto208/Documents/DiscProj/Prochl/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/j_t_ono_exeter_ac_uk/Documents/Pc paper/prochl_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E36F3B-25F5-8A41-BB3A-36482216081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{52E36F3B-25F5-8A41-BB3A-36482216081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679D1738-E79B-C943-B6EF-CB5F71849C06}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -536,7 +536,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +554,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Raw data"/>
@@ -13107,7 +13106,7 @@
   <dimension ref="A1:R280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20419,6 +20418,9 @@
       <c r="M280" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J280">
+    <sortCondition ref="J1:J280"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -30531,7 +30533,7 @@
       <c r="G277" t="s">
         <v>95</v>
       </c>
-      <c r="H277" s="9">
+      <c r="H277" s="7">
         <v>1553</v>
       </c>
       <c r="I277">
